--- a/Data/AHP ch2.xlsx
+++ b/Data/AHP ch2.xlsx
@@ -536,7 +536,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <f>SUM(I12:I16)</f>
+        <v>1</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -637,7 +640,7 @@
       </c>
       <c r="J12" s="4">
         <f t="shared" ref="J12:J16" si="7">MMULT(C3:G3,$I$12:$I$16)/I12</f>
-        <v>4.539204811</v>
+        <v>5.058484097</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -662,36 +665,36 @@
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:G13" si="4">C4/$C$8</f>
+        <f t="shared" ref="C13:C16" si="8">C4/$C$8</f>
         <v>0.04225352113</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>0.08450704225</v>
+        <f t="shared" ref="D13:G13" si="4">D4/D$8</f>
+        <v>0.08</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="4"/>
-        <v>0.1690140845</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="4"/>
-        <v>0.01207243461</v>
+        <v>0.08674698795</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="4"/>
-        <v>0.04225352113</v>
+        <v>0.08287292818</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="5"/>
-        <v>0.3501006036</v>
+        <v>0.3918734373</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="6"/>
-        <v>0.07002012072</v>
+        <v>0.07837468745</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="7"/>
-        <v>5.124737021</v>
+        <v>5.099834462</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -716,36 +719,36 @@
         <v>3</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ref="C14:G14" si="8">C5/$C$8</f>
+        <f t="shared" si="8"/>
         <v>0.02816901408</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="8"/>
-        <v>0.04225352113</v>
+        <f t="shared" ref="D14:G14" si="9">D5/D$8</f>
+        <v>0.04</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="8"/>
-        <v>0.08450704225</v>
+        <f t="shared" si="9"/>
+        <v>0.05</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="8"/>
-        <v>0.009389671362</v>
+        <f t="shared" si="9"/>
+        <v>0.06746987952</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="8"/>
-        <v>0.01690140845</v>
+        <f t="shared" si="9"/>
+        <v>0.03314917127</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="5"/>
-        <v>0.1812206573</v>
+        <v>0.2187880649</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="6"/>
-        <v>0.03624413146</v>
+        <v>0.04375761297</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="7"/>
-        <v>5.452782445</v>
+        <v>5.068185366</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -770,36 +773,36 @@
         <v>4</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:G15" si="9">C6/$C$8</f>
+        <f t="shared" si="8"/>
         <v>0.5915492958</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="9"/>
-        <v>0.5915492958</v>
+        <f t="shared" ref="D15:G15" si="10">D6/D$8</f>
+        <v>0.56</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="9"/>
-        <v>0.7605633803</v>
+        <f t="shared" si="10"/>
+        <v>0.45</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="9"/>
-        <v>0.08450704225</v>
+        <f t="shared" si="10"/>
+        <v>0.6072289157</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="9"/>
-        <v>0.338028169</v>
+        <f t="shared" si="10"/>
+        <v>0.6629834254</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="5"/>
-        <v>2.366197183</v>
+        <v>2.871761637</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="6"/>
-        <v>0.4732394366</v>
+        <v>0.5743523274</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="7"/>
-        <v>5.919296527</v>
+        <v>5.31512904</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -824,36 +827,36 @@
         <v>5</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ref="C16:G16" si="10">C7/$C$8</f>
+        <f t="shared" si="8"/>
         <v>0.2535211268</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="10"/>
-        <v>0.1690140845</v>
+        <f t="shared" ref="D16:G16" si="11">D7/D$8</f>
+        <v>0.16</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="10"/>
-        <v>0.4225352113</v>
+        <f t="shared" si="11"/>
+        <v>0.25</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="10"/>
-        <v>0.02112676056</v>
+        <f t="shared" si="11"/>
+        <v>0.1518072289</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="10"/>
-        <v>0.08450704225</v>
+        <f t="shared" si="11"/>
+        <v>0.1657458564</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="5"/>
-        <v>0.9507042254</v>
+        <v>0.981074212</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="6"/>
-        <v>0.1901408451</v>
+        <v>0.1962148424</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="7"/>
-        <v>5.004780493</v>
+        <v>5.286256334</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -878,24 +881,24 @@
         <v>6</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17:G17" si="11">SUM(C12:C16)</f>
+        <f t="shared" ref="C17:D17" si="12">SUM(C12:C16)</f>
         <v>1</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="11"/>
-        <v>1.047323944</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
-      <c r="E17" s="4">
-        <f t="shared" si="11"/>
-        <v>1.586619718</v>
+      <c r="E17" s="3">
+        <f>E8/E$8</f>
+        <v>1</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="11"/>
-        <v>0.2138428967</v>
+        <f t="shared" ref="F17:G17" si="13">SUM(F12:F16)</f>
+        <v>1</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="11"/>
-        <v>0.5369387596</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="9" t="s">
@@ -903,7 +906,7 @@
       </c>
       <c r="J17" s="4">
         <f>(AVERAGE(J12:J16)-5)/4</f>
-        <v>0.05204006484</v>
+        <v>0.0413944649</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -968,7 +971,7 @@
       </c>
       <c r="J19" s="4">
         <f>J17/J18</f>
-        <v>0.04646434361</v>
+        <v>0.03695934366</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
